--- a/TestData/ExcelModelDP.xlsx
+++ b/TestData/ExcelModelDP.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
   <si>
     <t>Scenario</t>
   </si>
@@ -165,6 +165,9 @@
     <t>Variant</t>
   </si>
   <si>
+    <t>FuelType</t>
+  </si>
+  <si>
     <t>Tata</t>
   </si>
   <si>
@@ -174,10 +177,16 @@
     <t>1.2P Smart +</t>
   </si>
   <si>
+    <t>nev</t>
+  </si>
+  <si>
     <t>Nexon EV</t>
   </si>
   <si>
     <t>Fearless +</t>
+  </si>
+  <si>
+    <t>ev</t>
   </si>
   <si>
     <t>Hyundai</t>
@@ -928,14 +937,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1556,60 +1563,60 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1617,28 +1624,28 @@
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1646,28 +1653,28 @@
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>0</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1675,28 +1682,28 @@
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>0</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1704,192 +1711,192 @@
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <v>2</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="17" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <v>3</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="9" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <v>0</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>0</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="7">
         <v>4</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="11">
+      <c r="A14" s="9">
         <v>123456789</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <v>2</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="9">
         <v>123456789</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="9">
         <v>123456789</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1907,19 +1914,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="10.2" customWidth="1"/>
     <col min="4" max="4" width="16.8" customWidth="1"/>
+    <col min="5" max="5" width="23.1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1932,8 +1940,11 @@
       <c r="D1" s="1">
         <v>4</v>
       </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1946,47 +1957,59 @@
       <c r="D2" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" ht="15" spans="1:4">
+    <row r="3" ht="15" spans="1:5">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="4" ht="15" spans="1:4">
+    <row r="4" ht="15" spans="1:5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" ht="17.4" spans="1:5">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="5" ht="17.4" spans="1:4">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
